--- a/data/exported/bikes.xlsx
+++ b/data/exported/bikes.xlsx
@@ -576,18 +576,18 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>121</v>
+        <v>394</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Renegade Commando</t>
+          <t>Classic Stealth Black</t>
         </is>
       </c>
       <c r="C8" t="n">
         <v>160000</v>
       </c>
       <c r="D8" t="n">
-        <v>7000</v>
+        <v>7500</v>
       </c>
       <c r="E8" t="n">
         <v>2018</v>
@@ -595,18 +595,18 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>394</v>
+        <v>121</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Classic Stealth Black</t>
+          <t>Renegade Commando</t>
         </is>
       </c>
       <c r="C9" t="n">
         <v>160000</v>
       </c>
       <c r="D9" t="n">
-        <v>7500</v>
+        <v>7000</v>
       </c>
       <c r="E9" t="n">
         <v>2018</v>
@@ -633,18 +633,18 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>963</v>
+        <v>252</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Dominar 400</t>
+          <t>Thunderbird 350X</t>
         </is>
       </c>
       <c r="C11" t="n">
         <v>145000</v>
       </c>
       <c r="D11" t="n">
-        <v>1200</v>
+        <v>2700</v>
       </c>
       <c r="E11" t="n">
         <v>2019</v>
@@ -652,18 +652,18 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>252</v>
+        <v>963</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Thunderbird 350X</t>
+          <t>Dominar 400</t>
         </is>
       </c>
       <c r="C12" t="n">
         <v>145000</v>
       </c>
       <c r="D12" t="n">
-        <v>2700</v>
+        <v>1200</v>
       </c>
       <c r="E12" t="n">
         <v>2019</v>
@@ -671,7 +671,7 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>87</v>
+        <v>891</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
@@ -682,7 +682,7 @@
         <v>140000</v>
       </c>
       <c r="D13" t="n">
-        <v>22000</v>
+        <v>14000</v>
       </c>
       <c r="E13" t="n">
         <v>2018</v>
@@ -690,7 +690,7 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>891</v>
+        <v>87</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
@@ -701,7 +701,7 @@
         <v>140000</v>
       </c>
       <c r="D14" t="n">
-        <v>14000</v>
+        <v>22000</v>
       </c>
       <c r="E14" t="n">
         <v>2018</v>
@@ -709,49 +709,49 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>122</v>
+        <v>964</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Classic Gunmetal Grey</t>
+          <t>Classic 350</t>
         </is>
       </c>
       <c r="C15" t="n">
         <v>135000</v>
       </c>
       <c r="D15" t="n">
-        <v>6100</v>
+        <v>4100</v>
       </c>
       <c r="E15" t="n">
-        <v>2018</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>964</v>
+        <v>122</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Classic 350</t>
+          <t>Classic Gunmetal Grey</t>
         </is>
       </c>
       <c r="C16" t="n">
         <v>135000</v>
       </c>
       <c r="D16" t="n">
-        <v>4100</v>
+        <v>6100</v>
       </c>
       <c r="E16" t="n">
-        <v>2019</v>
+        <v>2018</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>627</v>
+        <v>970</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Fazer 25</t>
+          <t>RC200</t>
         </is>
       </c>
       <c r="C17" t="n">
@@ -766,18 +766,18 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>19</v>
+        <v>627</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>FZ25</t>
+          <t>Fazer 25</t>
         </is>
       </c>
       <c r="C18" t="n">
         <v>120000</v>
       </c>
       <c r="D18" t="n">
-        <v>39000</v>
+        <v>6000</v>
       </c>
       <c r="E18" t="n">
         <v>2018</v>
@@ -785,56 +785,56 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Classic 350</t>
+          <t>Thunder 350</t>
         </is>
       </c>
       <c r="C19" t="n">
         <v>120000</v>
       </c>
       <c r="D19" t="n">
-        <v>11000</v>
+        <v>18000</v>
       </c>
       <c r="E19" t="n">
-        <v>2019</v>
+        <v>2018</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>968</v>
+        <v>969</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Thunder 350</t>
+          <t>Classic 350</t>
         </is>
       </c>
       <c r="C20" t="n">
         <v>120000</v>
       </c>
       <c r="D20" t="n">
-        <v>18000</v>
+        <v>11000</v>
       </c>
       <c r="E20" t="n">
-        <v>2018</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>970</v>
+        <v>19</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>RC200</t>
+          <t>FZ25</t>
         </is>
       </c>
       <c r="C21" t="n">
         <v>120000</v>
       </c>
       <c r="D21" t="n">
-        <v>6000</v>
+        <v>39000</v>
       </c>
       <c r="E21" t="n">
         <v>2018</v>
@@ -861,18 +861,18 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>542</v>
+        <v>973</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Fazer 25</t>
+          <t>Mojo XT300</t>
         </is>
       </c>
       <c r="C23" t="n">
         <v>115000</v>
       </c>
       <c r="D23" t="n">
-        <v>11000</v>
+        <v>35000</v>
       </c>
       <c r="E23" t="n">
         <v>2018</v>
@@ -880,18 +880,18 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>973</v>
+        <v>542</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Mojo XT300</t>
+          <t>Fazer 25</t>
         </is>
       </c>
       <c r="C24" t="n">
         <v>115000</v>
       </c>
       <c r="D24" t="n">
-        <v>35000</v>
+        <v>11000</v>
       </c>
       <c r="E24" t="n">
         <v>2018</v>
@@ -1070,18 +1070,18 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>986</v>
+        <v>267</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Avenger 220</t>
+          <t>Xpulse 200</t>
         </is>
       </c>
       <c r="C34" t="n">
         <v>90000</v>
       </c>
       <c r="D34" t="n">
-        <v>1300</v>
+        <v>8600</v>
       </c>
       <c r="E34" t="n">
         <v>2019</v>
@@ -1089,18 +1089,18 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>267</v>
+        <v>986</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Xpulse 200</t>
+          <t>Avenger 220</t>
         </is>
       </c>
       <c r="C35" t="n">
         <v>90000</v>
       </c>
       <c r="D35" t="n">
-        <v>8600</v>
+        <v>1300</v>
       </c>
       <c r="E35" t="n">
         <v>2019</v>
@@ -1241,21 +1241,21 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>990</v>
+        <v>987</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>CB Hornet 160R</t>
+          <t>Avenger 150</t>
         </is>
       </c>
       <c r="C43" t="n">
         <v>75000</v>
       </c>
       <c r="D43" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="E43" t="n">
-        <v>2019</v>
+        <v>2018</v>
       </c>
     </row>
     <row r="44">
@@ -1279,37 +1279,37 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>987</v>
+        <v>990</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Avenger 150</t>
+          <t>CB Hornet 160R</t>
         </is>
       </c>
       <c r="C45" t="n">
         <v>75000</v>
       </c>
       <c r="D45" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="E45" t="n">
-        <v>2018</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>870</v>
+        <v>655</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Avenger Street 220</t>
+          <t>YZF R15 S</t>
         </is>
       </c>
       <c r="C46" t="n">
         <v>75000</v>
       </c>
       <c r="D46" t="n">
-        <v>12000</v>
+        <v>36000</v>
       </c>
       <c r="E46" t="n">
         <v>2018</v>
@@ -1317,18 +1317,18 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>655</v>
+        <v>870</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>YZF R15 S</t>
+          <t>Avenger Street 220</t>
         </is>
       </c>
       <c r="C47" t="n">
         <v>75000</v>
       </c>
       <c r="D47" t="n">
-        <v>36000</v>
+        <v>12000</v>
       </c>
       <c r="E47" t="n">
         <v>2018</v>
@@ -1355,11 +1355,11 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>846</v>
+        <v>519</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>CB Hornet 160R</t>
+          <t>Access 125</t>
         </is>
       </c>
       <c r="C49" t="n">
@@ -1374,11 +1374,11 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>519</v>
+        <v>846</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Access 125</t>
+          <t>CB Hornet 160R</t>
         </is>
       </c>
       <c r="C50" t="n">
@@ -1412,18 +1412,18 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>425</v>
+        <v>509</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Fazer FI V 2.0 [2016-2018]</t>
+          <t>Pulsar 180</t>
         </is>
       </c>
       <c r="C52" t="n">
         <v>65000</v>
       </c>
       <c r="D52" t="n">
-        <v>3500</v>
+        <v>26000</v>
       </c>
       <c r="E52" t="n">
         <v>2018</v>
@@ -1431,18 +1431,18 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>509</v>
+        <v>425</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Pulsar 180</t>
+          <t>Fazer FI V 2.0 [2016-2018]</t>
         </is>
       </c>
       <c r="C53" t="n">
         <v>65000</v>
       </c>
       <c r="D53" t="n">
-        <v>26000</v>
+        <v>3500</v>
       </c>
       <c r="E53" t="n">
         <v>2018</v>
@@ -1469,11 +1469,11 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>768</v>
+        <v>1003</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>FZ V 2.0</t>
+          <t>FZ  v 2.0</t>
         </is>
       </c>
       <c r="C55" t="n">
@@ -1488,18 +1488,18 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>998</v>
+        <v>768</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>CB Hornet 160R</t>
+          <t>FZ V 2.0</t>
         </is>
       </c>
       <c r="C56" t="n">
         <v>60000</v>
       </c>
       <c r="D56" t="n">
-        <v>15000</v>
+        <v>25000</v>
       </c>
       <c r="E56" t="n">
         <v>2018</v>
@@ -1526,18 +1526,18 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>1003</v>
+        <v>998</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>FZ  v 2.0</t>
+          <t>CB Hornet 160R</t>
         </is>
       </c>
       <c r="C58" t="n">
         <v>60000</v>
       </c>
       <c r="D58" t="n">
-        <v>25000</v>
+        <v>15000</v>
       </c>
       <c r="E58" t="n">
         <v>2018</v>
@@ -1602,45 +1602,45 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>128</v>
+        <v>675</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Activa 5G</t>
+          <t>Activa 125 [2016-2017]</t>
         </is>
       </c>
       <c r="C62" t="n">
         <v>55000</v>
       </c>
       <c r="D62" t="n">
-        <v>10000</v>
+        <v>18000</v>
       </c>
       <c r="E62" t="n">
-        <v>2019</v>
+        <v>2018</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>675</v>
+        <v>336</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Activa 125 [2016-2017]</t>
+          <t>Activa 5G</t>
         </is>
       </c>
       <c r="C63" t="n">
         <v>55000</v>
       </c>
       <c r="D63" t="n">
-        <v>18000</v>
+        <v>9000</v>
       </c>
       <c r="E63" t="n">
-        <v>2018</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>336</v>
+        <v>128</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
@@ -1651,7 +1651,7 @@
         <v>55000</v>
       </c>
       <c r="D64" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="E64" t="n">
         <v>2019</v>
@@ -1659,18 +1659,18 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>1009</v>
+        <v>676</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Pulsar 220 F</t>
+          <t>Activa 5G</t>
         </is>
       </c>
       <c r="C65" t="n">
         <v>51000</v>
       </c>
       <c r="D65" t="n">
-        <v>24000</v>
+        <v>14000</v>
       </c>
       <c r="E65" t="n">
         <v>2018</v>
@@ -1678,18 +1678,18 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>676</v>
+        <v>1009</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Activa 5G</t>
+          <t>Pulsar 220 F</t>
         </is>
       </c>
       <c r="C66" t="n">
         <v>51000</v>
       </c>
       <c r="D66" t="n">
-        <v>14000</v>
+        <v>24000</v>
       </c>
       <c r="E66" t="n">
         <v>2018</v>
@@ -1697,18 +1697,18 @@
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>426</v>
+        <v>41</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Activa 5G</t>
+          <t>Glamour FI</t>
         </is>
       </c>
       <c r="C67" t="n">
         <v>50000</v>
       </c>
       <c r="D67" t="n">
-        <v>14000</v>
+        <v>20000</v>
       </c>
       <c r="E67" t="n">
         <v>2018</v>
@@ -1735,18 +1735,18 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>41</v>
+        <v>620</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Glamour FI</t>
+          <t>Discover 125</t>
         </is>
       </c>
       <c r="C69" t="n">
         <v>50000</v>
       </c>
       <c r="D69" t="n">
-        <v>20000</v>
+        <v>6000</v>
       </c>
       <c r="E69" t="n">
         <v>2018</v>
@@ -1773,18 +1773,18 @@
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>620</v>
+        <v>736</v>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Discover 125</t>
+          <t>CB Shine SP</t>
         </is>
       </c>
       <c r="C71" t="n">
         <v>50000</v>
       </c>
       <c r="D71" t="n">
-        <v>6000</v>
+        <v>37000</v>
       </c>
       <c r="E71" t="n">
         <v>2018</v>
@@ -1792,18 +1792,18 @@
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>736</v>
+        <v>426</v>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>CB Shine SP</t>
+          <t>Activa 5G</t>
         </is>
       </c>
       <c r="C72" t="n">
         <v>50000</v>
       </c>
       <c r="D72" t="n">
-        <v>37000</v>
+        <v>14000</v>
       </c>
       <c r="E72" t="n">
         <v>2018</v>
@@ -1830,18 +1830,18 @@
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>1018</v>
+        <v>1016</v>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t xml:space="preserve">Dream Yuga </t>
+          <t xml:space="preserve">Sport </t>
         </is>
       </c>
       <c r="C74" t="n">
         <v>48000</v>
       </c>
       <c r="D74" t="n">
-        <v>8600</v>
+        <v>15000</v>
       </c>
       <c r="E74" t="n">
         <v>2019</v>
@@ -1849,18 +1849,18 @@
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t xml:space="preserve">Sport </t>
+          <t>Activa 4G</t>
         </is>
       </c>
       <c r="C75" t="n">
         <v>48000</v>
       </c>
       <c r="D75" t="n">
-        <v>15000</v>
+        <v>4300</v>
       </c>
       <c r="E75" t="n">
         <v>2019</v>
@@ -1868,18 +1868,18 @@
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>1015</v>
+        <v>1018</v>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Activa 4G</t>
+          <t xml:space="preserve">Dream Yuga </t>
         </is>
       </c>
       <c r="C76" t="n">
         <v>48000</v>
       </c>
       <c r="D76" t="n">
-        <v>4300</v>
+        <v>8600</v>
       </c>
       <c r="E76" t="n">
         <v>2019</v>
@@ -1925,18 +1925,18 @@
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>95</v>
+        <v>1025</v>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Activa 4G</t>
+          <t>3g</t>
         </is>
       </c>
       <c r="C79" t="n">
         <v>45000</v>
       </c>
       <c r="D79" t="n">
-        <v>25000</v>
+        <v>500</v>
       </c>
       <c r="E79" t="n">
         <v>2018</v>
@@ -2001,7 +2001,7 @@
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>1019</v>
+        <v>95</v>
       </c>
       <c r="B83" t="inlineStr">
         <is>
@@ -2012,26 +2012,26 @@
         <v>45000</v>
       </c>
       <c r="D83" t="n">
-        <v>4000</v>
+        <v>25000</v>
       </c>
       <c r="E83" t="n">
-        <v>2019</v>
+        <v>2018</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>1024</v>
+        <v>1026</v>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Splender iSmart</t>
+          <t>Passion Pro</t>
         </is>
       </c>
       <c r="C84" t="n">
         <v>45000</v>
       </c>
       <c r="D84" t="n">
-        <v>14000</v>
+        <v>1000</v>
       </c>
       <c r="E84" t="n">
         <v>2018</v>
@@ -2039,18 +2039,18 @@
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>3g</t>
+          <t>Splender iSmart</t>
         </is>
       </c>
       <c r="C85" t="n">
         <v>45000</v>
       </c>
       <c r="D85" t="n">
-        <v>500</v>
+        <v>14000</v>
       </c>
       <c r="E85" t="n">
         <v>2018</v>
@@ -2058,21 +2058,21 @@
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>1026</v>
+        <v>1019</v>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Passion Pro</t>
+          <t>Activa 4G</t>
         </is>
       </c>
       <c r="C86" t="n">
         <v>45000</v>
       </c>
       <c r="D86" t="n">
-        <v>1000</v>
+        <v>4000</v>
       </c>
       <c r="E86" t="n">
-        <v>2018</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="87">
